--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2554.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2554.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158207294283872</v>
+        <v>1.920330882072449</v>
       </c>
       <c r="B1">
-        <v>1.850999135315137</v>
+        <v>1.92260217666626</v>
       </c>
       <c r="C1">
-        <v>3.929480073192962</v>
+        <v>7.92901611328125</v>
       </c>
       <c r="D1">
-        <v>1.851124213104868</v>
+        <v>0.928367018699646</v>
       </c>
       <c r="E1">
-        <v>0.8517983678434106</v>
+        <v>0.4212445020675659</v>
       </c>
     </row>
   </sheetData>
